--- a/Modelagem/modelagem-spmedicalgroup-fisico.xlsx
+++ b/Modelagem/modelagem-spmedicalgroup-fisico.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39221000826\Documents\senai_spmedgroup_sprint1_bd_manha_flavio_pires\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdnpi\OneDrive\Área de Trabalho\Senai\Projetos Senai\senai_spmedgroup_sprint1_bd_manha_flavio_pires\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EE7B30-4CC4-41B3-8707-E610C030C993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{37EE7B30-4CC4-41B3-8707-E610C030C993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB9B0029-4E25-4A17-8D74-F253F2E5C3F8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4D6D4549-E603-4A5D-9E44-FB70F3D58B9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4D6D4549-E603-4A5D-9E44-FB70F3D58B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,9 +87,6 @@
     <t>IdUsuario</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -388,13 +385,16 @@
   </si>
   <si>
     <t>TituloSituacao</t>
+  </si>
+  <si>
+    <t>NomeUsuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,27 +423,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -615,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -639,9 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,10 +629,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1023,32 +996,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78804989-D715-43AA-A111-C435CB443992}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1088,17 +1061,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="35"/>
+      <c r="D6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1106,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1123,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -1137,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -1151,174 +1124,174 @@
         <v>3</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>4</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>5</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>7</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="37"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="33"/>
       <c r="D15" s="10">
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>119</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="D16" s="10">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
-        <v>1</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>111</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>1</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="D17" s="10">
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>2</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>113</v>
+      <c r="B18" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="10">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
-        <v>3</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>112</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="D19" s="10">
         <v>12</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="10">
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="10">
         <v>14</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="10">
         <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="10">
         <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="10">
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -1329,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>1</v>
       </c>
@@ -1352,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>2</v>
       </c>
@@ -1369,16 +1342,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>3</v>
       </c>
@@ -1389,16 +1362,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -1409,16 +1382,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>5</v>
       </c>
@@ -1428,17 +1401,17 @@
       <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>41</v>
+      <c r="D33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>6</v>
       </c>
@@ -1448,17 +1421,17 @@
       <c r="C34" s="12">
         <v>1</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>42</v>
+      <c r="D34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>7</v>
       </c>
@@ -1468,17 +1441,17 @@
       <c r="C35" s="12">
         <v>1</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>43</v>
+      <c r="D35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>8</v>
       </c>
@@ -1488,17 +1461,17 @@
       <c r="C36" s="12">
         <v>1</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>44</v>
+      <c r="D36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>9</v>
       </c>
@@ -1508,17 +1481,17 @@
       <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>45</v>
+      <c r="D37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>10</v>
       </c>
@@ -1528,17 +1501,17 @@
       <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>46</v>
+      <c r="D38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>11</v>
       </c>
@@ -1548,436 +1521,436 @@
       <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>47</v>
+      <c r="D39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="18" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>1</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="16">
+        <v>3</v>
+      </c>
+      <c r="C45" s="16">
+        <v>17</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>3</v>
+      </c>
+      <c r="B46" s="16">
+        <v>4</v>
+      </c>
+      <c r="C46" s="16">
+        <v>16</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
-        <v>1</v>
-      </c>
-      <c r="B44" s="19">
+      <c r="C50" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>1</v>
+      </c>
+      <c r="B51" s="19">
+        <v>5</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="20">
+        <v>94839859000</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="21">
+        <v>30602</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
         <v>2</v>
       </c>
-      <c r="C44" s="19">
+      <c r="B52" s="19">
+        <v>6</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="20">
+        <v>73556944057</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="21">
+        <v>37095</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>3</v>
+      </c>
+      <c r="B53" s="19">
+        <v>7</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="20">
+        <v>16839338002</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="21">
+        <v>28773</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>4</v>
+      </c>
+      <c r="B54" s="19">
+        <v>8</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="20">
+        <v>14332654765</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="21">
+        <v>31333</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>5</v>
+      </c>
+      <c r="B55" s="19">
+        <v>9</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="20">
+        <v>91305348010</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="21">
+        <v>27633</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>6</v>
+      </c>
+      <c r="B56" s="19">
+        <v>10</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="20">
+        <v>79799299004</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="21">
+        <v>26379</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>7</v>
+      </c>
+      <c r="B57" s="19">
+        <v>11</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="20">
+        <v>13771913039</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="21">
+        <v>43164</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>1</v>
+      </c>
+      <c r="B62" s="25">
+        <v>3</v>
+      </c>
+      <c r="C62" s="25">
+        <v>7</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="27">
+        <v>43850.625</v>
+      </c>
+      <c r="F62" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
         <v>2</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="B63" s="25">
         <v>2</v>
       </c>
-      <c r="B45" s="19">
-        <v>3</v>
-      </c>
-      <c r="C45" s="19">
-        <v>17</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
-        <v>3</v>
-      </c>
-      <c r="B46" s="19">
+      <c r="C63" s="25">
+        <v>2</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27">
+        <v>43836.416666666664</v>
+      </c>
+      <c r="F63" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>3</v>
+      </c>
+      <c r="B64" s="25">
+        <v>2</v>
+      </c>
+      <c r="C64" s="25">
+        <v>3</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="27">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
         <v>4</v>
       </c>
-      <c r="C46" s="19">
-        <v>16</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
-        <v>1</v>
-      </c>
-      <c r="B51" s="22">
+      <c r="B65" s="25">
+        <v>2</v>
+      </c>
+      <c r="C65" s="25">
+        <v>2</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="27">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
         <v>5</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="23">
-        <v>94839859000</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="24">
-        <v>30602</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="B66" s="25">
+        <v>1</v>
+      </c>
+      <c r="C66" s="25">
+        <v>4</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27">
+        <v>43503.458854166667</v>
+      </c>
+      <c r="F66" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>6</v>
+      </c>
+      <c r="B67" s="25">
+        <v>3</v>
+      </c>
+      <c r="C67" s="25">
+        <v>7</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="27">
+        <v>43898.625</v>
+      </c>
+      <c r="F67" s="31">
         <v>2</v>
       </c>
-      <c r="B52" s="22">
-        <v>6</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="23">
-        <v>73556944057</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="24">
-        <v>37095</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
-        <v>3</v>
-      </c>
-      <c r="B53" s="22">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
         <v>7</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="23">
-        <v>16839338002</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="24">
-        <v>28773</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="B68" s="25">
+        <v>1</v>
+      </c>
+      <c r="C68" s="25">
         <v>4</v>
       </c>
-      <c r="B54" s="22">
-        <v>8</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="23">
-        <v>14332654765</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="24">
-        <v>31333</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
-        <v>5</v>
-      </c>
-      <c r="B55" s="22">
-        <v>9</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="23">
-        <v>91305348010</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="24">
-        <v>27633</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
-        <v>6</v>
-      </c>
-      <c r="B56" s="22">
-        <v>10</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="23">
-        <v>79799299004</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="24">
-        <v>26379</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
-        <v>7</v>
-      </c>
-      <c r="B57" s="22">
-        <v>11</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="23">
-        <v>13771913039</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="24">
-        <v>43164</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="29">
-        <v>1</v>
-      </c>
-      <c r="B62" s="29">
-        <v>3</v>
-      </c>
-      <c r="C62" s="29">
-        <v>7</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="31">
-        <v>43850.625</v>
-      </c>
-      <c r="F62" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="29">
-        <v>2</v>
-      </c>
-      <c r="B63" s="29">
-        <v>2</v>
-      </c>
-      <c r="C63" s="29">
-        <v>2</v>
-      </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31">
-        <v>43836.416666666664</v>
-      </c>
-      <c r="F63" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="29">
-        <v>3</v>
-      </c>
-      <c r="B64" s="29">
-        <v>2</v>
-      </c>
-      <c r="C64" s="29">
-        <v>3</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" s="31">
-        <v>43868.458333333336</v>
-      </c>
-      <c r="F64" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="29">
-        <v>4</v>
-      </c>
-      <c r="B65" s="29">
-        <v>2</v>
-      </c>
-      <c r="C65" s="29">
-        <v>2</v>
-      </c>
-      <c r="D65" s="30" t="s">
+      <c r="D68" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="31">
-        <v>43137.416666666664</v>
-      </c>
-      <c r="F65" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="29">
-        <v>5</v>
-      </c>
-      <c r="B66" s="29">
-        <v>1</v>
-      </c>
-      <c r="C66" s="29">
-        <v>4</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31">
-        <v>43503.458854166667</v>
-      </c>
-      <c r="F66" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="29">
-        <v>6</v>
-      </c>
-      <c r="B67" s="29">
-        <v>3</v>
-      </c>
-      <c r="C67" s="29">
-        <v>7</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="31">
-        <v>43898.625</v>
-      </c>
-      <c r="F67" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="29">
-        <v>7</v>
-      </c>
-      <c r="B68" s="29">
-        <v>1</v>
-      </c>
-      <c r="C68" s="29">
-        <v>4</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="31">
+      <c r="E68" s="27">
         <v>43899.458854166667</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="31">
         <v>2</v>
       </c>
     </row>

--- a/Modelagem/modelagem-spmedicalgroup-fisico.xlsx
+++ b/Modelagem/modelagem-spmedicalgroup-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdnpi\OneDrive\Área de Trabalho\Senai\Projetos Senai\senai_spmedgroup_sprint1_bd_manha_flavio_pires\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39221000826\Documents\senai_spmedgroup_sprint1_bd_manha_flavio_pires\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{37EE7B30-4CC4-41B3-8707-E610C030C993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB9B0029-4E25-4A17-8D74-F253F2E5C3F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D219C91-17E1-4C76-BDA9-38F534649534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4D6D4549-E603-4A5D-9E44-FB70F3D58B9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{4D6D4549-E603-4A5D-9E44-FB70F3D58B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="170">
   <si>
     <t>Clinica</t>
   </si>
@@ -388,13 +388,160 @@
   </si>
   <si>
     <t>NomeUsuario</t>
+  </si>
+  <si>
+    <t>NomePaciente</t>
+  </si>
+  <si>
+    <t>NomeMedico</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>IdTipo</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Avenida</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>IdLogradouro</t>
+  </si>
+  <si>
+    <t>TituloTipo</t>
+  </si>
+  <si>
+    <t>Barão Limeira</t>
+  </si>
+  <si>
+    <t>Estado de Israel</t>
+  </si>
+  <si>
+    <t>Paulista</t>
+  </si>
+  <si>
+    <t>Ibirapuera</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Ver. Geraldo de Camargo</t>
+  </si>
+  <si>
+    <t>Dos Arapanés</t>
+  </si>
+  <si>
+    <t>São Antonio</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>IdBairro</t>
+  </si>
+  <si>
+    <t>NomeBairro</t>
+  </si>
+  <si>
+    <t>NomeLogradouro</t>
+  </si>
+  <si>
+    <t>Campos Elíseos</t>
+  </si>
+  <si>
+    <t>Vila Mariana</t>
+  </si>
+  <si>
+    <t>Bela Vista</t>
+  </si>
+  <si>
+    <t>Indianópolis</t>
+  </si>
+  <si>
+    <t>Vila São Jorge</t>
+  </si>
+  <si>
+    <t>Santa Luzia</t>
+  </si>
+  <si>
+    <t>Vila Universal</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>IdCidade</t>
+  </si>
+  <si>
+    <t>NomeCidade</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Barueri</t>
+  </si>
+  <si>
+    <t>Ribeirão Pires</t>
+  </si>
+  <si>
+    <t>IdEstado</t>
+  </si>
+  <si>
+    <t>NomeEstado</t>
+  </si>
+  <si>
+    <t>IdCEP</t>
+  </si>
+  <si>
+    <t>NomeCEP</t>
+  </si>
+  <si>
+    <t>01202-001</t>
+  </si>
+  <si>
+    <t>04022-000</t>
+  </si>
+  <si>
+    <t>01310-200</t>
+  </si>
+  <si>
+    <t>04029-200</t>
+  </si>
+  <si>
+    <t>06402-030</t>
+  </si>
+  <si>
+    <t>09405-380</t>
+  </si>
+  <si>
+    <t>04524-001</t>
+  </si>
+  <si>
+    <t>06407-140</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +575,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +732,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -628,7 +819,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
@@ -669,6 +859,36 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -994,34 +1214,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78804989-D715-43AA-A111-C435CB443992}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="67.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1061,17 +1282,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="34"/>
+      <c r="D6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1099,7 +1320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -1113,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -1127,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" s="10">
         <v>4</v>
       </c>
@@ -1136,7 +1357,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D12" s="10">
         <v>5</v>
       </c>
@@ -1145,7 +1366,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="10">
         <v>6</v>
       </c>
@@ -1154,7 +1375,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" s="10">
         <v>7</v>
       </c>
@@ -1163,11 +1384,11 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="32"/>
       <c r="D15" s="10">
         <v>8</v>
       </c>
@@ -1176,11 +1397,11 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="10">
@@ -1191,11 +1412,11 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>1</v>
-      </c>
-      <c r="B17" s="30" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>1</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D17" s="10">
@@ -1206,11 +1427,11 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="10">
@@ -1221,11 +1442,11 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
         <v>3</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="10">
@@ -1236,7 +1457,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" s="10">
         <v>13</v>
       </c>
@@ -1245,7 +1466,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" s="10">
         <v>14</v>
       </c>
@@ -1254,7 +1475,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" s="10">
         <v>15</v>
       </c>
@@ -1263,7 +1484,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="10">
         <v>16</v>
       </c>
@@ -1272,7 +1493,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D24" s="10">
         <v>17</v>
       </c>
@@ -1281,17 +1502,17 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>1</v>
       </c>
@@ -1331,7 +1552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>2</v>
       </c>
@@ -1351,7 +1572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>3</v>
       </c>
@@ -1371,7 +1592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -1391,7 +1612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>5</v>
       </c>
@@ -1411,7 +1632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>6</v>
       </c>
@@ -1431,7 +1652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>7</v>
       </c>
@@ -1451,7 +1672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>8</v>
       </c>
@@ -1471,7 +1692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>9</v>
       </c>
@@ -1491,7 +1712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>10</v>
       </c>
@@ -1511,7 +1732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>11</v>
       </c>
@@ -1531,15 +1752,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>74</v>
       </c>
@@ -1550,10 +1772,13 @@
         <v>55</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>1</v>
       </c>
@@ -1564,10 +1789,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -1578,10 +1806,13 @@
         <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>3</v>
       </c>
@@ -1592,21 +1823,25 @@
         <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>79</v>
       </c>
@@ -1614,22 +1849,25 @@
         <v>19</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="E50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="F50" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="G50" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="H50" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>1</v>
       </c>
@@ -1637,22 +1875,25 @@
         <v>5</v>
       </c>
       <c r="C51" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="20">
+      <c r="E51" s="40">
         <v>94839859000</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="F51" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="21">
+      <c r="G51" s="39">
         <v>30602</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="H51" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -1660,22 +1901,25 @@
         <v>6</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="20">
+      <c r="E52" s="40">
         <v>73556944057</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="F52" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="21">
+      <c r="G52" s="39">
         <v>37095</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="H52" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>3</v>
       </c>
@@ -1683,22 +1927,25 @@
         <v>7</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="20">
+      <c r="E53" s="40">
         <v>16839338002</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="F53" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="21">
+      <c r="G53" s="39">
         <v>28773</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>4</v>
       </c>
@@ -1706,22 +1953,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="20">
+      <c r="E54" s="40">
         <v>14332654765</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="F54" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="21">
+      <c r="G54" s="39">
         <v>31333</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="H54" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>5</v>
       </c>
@@ -1729,22 +1979,25 @@
         <v>9</v>
       </c>
       <c r="C55" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="20">
+      <c r="E55" s="40">
         <v>91305348010</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="F55" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="21">
+      <c r="G55" s="39">
         <v>27633</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="H55" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>6</v>
       </c>
@@ -1752,22 +2005,25 @@
         <v>10</v>
       </c>
       <c r="C56" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="20">
+      <c r="E56" s="40">
         <v>79799299004</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="F56" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="21">
+      <c r="G56" s="39">
         <v>26379</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="H56" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>7</v>
       </c>
@@ -1775,195 +2031,487 @@
         <v>11</v>
       </c>
       <c r="C57" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="20">
+      <c r="E57" s="40">
         <v>13771913039</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="21">
+      <c r="F57" s="22"/>
+      <c r="G57" s="39">
         <v>43164</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="H57" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
-        <v>1</v>
-      </c>
-      <c r="B62" s="25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
+        <v>1</v>
+      </c>
+      <c r="B62" s="24">
         <v>3</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C62" s="24">
         <v>7</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="26">
         <v>43850.625</v>
       </c>
-      <c r="F62" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
+      <c r="F62" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
         <v>2</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <v>2</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="24">
         <v>2</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27">
+      <c r="D63" s="25"/>
+      <c r="E63" s="26">
         <v>43836.416666666664</v>
       </c>
-      <c r="F63" s="31">
+      <c r="F63" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>3</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="24">
         <v>2</v>
       </c>
-      <c r="C64" s="25">
+      <c r="C64" s="24">
         <v>3</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="26">
         <v>43868.458333333336</v>
       </c>
-      <c r="F64" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="F64" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
         <v>4</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="24">
         <v>2</v>
       </c>
-      <c r="C65" s="25">
+      <c r="C65" s="24">
         <v>2</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="26">
         <v>43137.416666666664</v>
       </c>
-      <c r="F65" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="F65" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
         <v>5</v>
       </c>
-      <c r="B66" s="25">
-        <v>1</v>
-      </c>
-      <c r="C66" s="25">
+      <c r="B66" s="24">
+        <v>1</v>
+      </c>
+      <c r="C66" s="24">
         <v>4</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27">
+      <c r="D66" s="25"/>
+      <c r="E66" s="26">
         <v>43503.458854166667</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
         <v>6</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="24">
         <v>3</v>
       </c>
-      <c r="C67" s="25">
+      <c r="C67" s="24">
         <v>7</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="26">
         <v>43898.625</v>
       </c>
-      <c r="F67" s="31">
+      <c r="F67" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
         <v>7</v>
       </c>
-      <c r="B68" s="25">
-        <v>1</v>
-      </c>
-      <c r="C68" s="25">
+      <c r="B68" s="24">
+        <v>1</v>
+      </c>
+      <c r="C68" s="24">
         <v>4</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="26">
         <v>43899.458854166667</v>
       </c>
-      <c r="F68" s="31">
+      <c r="F68" s="30">
         <v>2</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="47"/>
+      <c r="D70" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="41"/>
+      <c r="G70" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" s="43"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>1</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="45">
+        <v>1</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>2</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="45">
+        <v>2</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="8">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="45">
+        <v>3</v>
+      </c>
+      <c r="H74" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D75" s="8">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="45">
+        <v>4</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D76" s="8">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="45">
+        <v>5</v>
+      </c>
+      <c r="H76" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D77" s="8">
+        <v>6</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="45">
+        <v>6</v>
+      </c>
+      <c r="H77" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78" s="8">
+        <v>7</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G78" s="45">
+        <v>7</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D79" s="8">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="49"/>
+      <c r="D82" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="49"/>
+      <c r="G82" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" s="49"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="50">
+        <v>1</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="50">
+        <v>1</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" s="51">
+        <v>1</v>
+      </c>
+      <c r="H84" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="50">
+        <v>2</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="51">
+        <v>2</v>
+      </c>
+      <c r="H85" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="50">
+        <v>3</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="51">
+        <v>3</v>
+      </c>
+      <c r="H86" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G87" s="51">
+        <v>4</v>
+      </c>
+      <c r="H87" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G88" s="51">
+        <v>5</v>
+      </c>
+      <c r="H88" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G89" s="51">
+        <v>6</v>
+      </c>
+      <c r="H89" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G90" s="51">
+        <v>7</v>
+      </c>
+      <c r="H90" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G91" s="51">
+        <v>8</v>
+      </c>
+      <c r="H91" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H93" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{0EE5EF45-C3C1-4473-A511-120717F99651}"/>
@@ -1979,5 +2527,6 @@
     <hyperlink ref="E39" r:id="rId11" xr:uid="{342A5F0D-14A3-482F-9A50-185D429EB5C5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Modelagem/modelagem-spmedicalgroup-fisico.xlsx
+++ b/Modelagem/modelagem-spmedicalgroup-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39221000826\Documents\senai_spmedgroup_sprint1_bd_manha_flavio_pires\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ba74c4405365386/Área de Trabalho/Senai/senai_spmedgroup_sprint1_bd_manha_flavio_pires/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D219C91-17E1-4C76-BDA9-38F534649534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2D219C91-17E1-4C76-BDA9-38F534649534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A828EFC1-B90F-4FDD-B544-F1A39B29169A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{4D6D4549-E603-4A5D-9E44-FB70F3D58B9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4D6D4549-E603-4A5D-9E44-FB70F3D58B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>Clinica</t>
   </si>
@@ -42,12 +42,6 @@
     <t>RazaoSocial</t>
   </si>
   <si>
-    <t>EnderecoClinica</t>
-  </si>
-  <si>
-    <t>HorarioFuncionamento</t>
-  </si>
-  <si>
     <t>Clinica Possarle</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>SP Medical Group</t>
   </si>
   <si>
-    <t>Av. Barão Limeira, 532, São Paulo, SP</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
     <t>TipoUsuario</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>DataNascimento</t>
   </si>
   <si>
-    <t>EnderecoPaciente</t>
-  </si>
-  <si>
     <t>43522543-5</t>
   </si>
   <si>
@@ -321,27 +306,6 @@
     <t>11 95436-8769</t>
   </si>
   <si>
-    <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
-  </si>
-  <si>
-    <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
-  </si>
-  <si>
-    <t>Av. Ibirapuera - Indianópolis, 2927,  São Paulo - SP, 04029-200</t>
-  </si>
-  <si>
-    <t>R. Vitória, 120 - Vila Sao Jorge, Barueri - SP, 06402-030</t>
-  </si>
-  <si>
-    <t>R. Ver. Geraldo de Camargo, 66 - Santa Luzia, Ribeirão Pires - SP, 09405-380</t>
-  </si>
-  <si>
-    <t>Alameda dos Arapanés, 945 - Indianópolis, São Paulo - SP, 04524-001</t>
-  </si>
-  <si>
-    <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
-  </si>
-  <si>
     <t>Consulta</t>
   </si>
   <si>
@@ -387,78 +351,18 @@
     <t>TituloSituacao</t>
   </si>
   <si>
-    <t>NomeUsuario</t>
-  </si>
-  <si>
     <t>NomePaciente</t>
   </si>
   <si>
     <t>NomeMedico</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>IdTipo</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Avenida</t>
-  </si>
-  <si>
-    <t>Alameda</t>
-  </si>
-  <si>
-    <t>Logradouro</t>
-  </si>
-  <si>
-    <t>IdLogradouro</t>
-  </si>
-  <si>
-    <t>TituloTipo</t>
-  </si>
-  <si>
-    <t>Barão Limeira</t>
-  </si>
-  <si>
-    <t>Estado de Israel</t>
-  </si>
-  <si>
-    <t>Paulista</t>
-  </si>
-  <si>
-    <t>Ibirapuera</t>
-  </si>
-  <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Ver. Geraldo de Camargo</t>
-  </si>
-  <si>
-    <t>Dos Arapanés</t>
-  </si>
-  <si>
-    <t>São Antonio</t>
-  </si>
-  <si>
     <t>Bairro</t>
   </si>
   <si>
-    <t>IdBairro</t>
-  </si>
-  <si>
-    <t>NomeBairro</t>
-  </si>
-  <si>
     <t>NomeLogradouro</t>
   </si>
   <si>
-    <t>Campos Elíseos</t>
-  </si>
-  <si>
     <t>Vila Mariana</t>
   </si>
   <si>
@@ -507,12 +411,6 @@
     <t>NomeEstado</t>
   </si>
   <si>
-    <t>IdCEP</t>
-  </si>
-  <si>
-    <t>NomeCEP</t>
-  </si>
-  <si>
     <t>01202-001</t>
   </si>
   <si>
@@ -535,13 +433,58 @@
   </si>
   <si>
     <t>06407-140</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>NumeroLogradouro</t>
+  </si>
+  <si>
+    <t>Rua Estado de Israel</t>
+  </si>
+  <si>
+    <t>Avenida Ibirapuera</t>
+  </si>
+  <si>
+    <t>Avenida Paulista</t>
+  </si>
+  <si>
+    <t>Rua Vitória</t>
+  </si>
+  <si>
+    <t>Rua Ver. Geraldo de Camargo</t>
+  </si>
+  <si>
+    <t>Alameda Dos Arapanés</t>
+  </si>
+  <si>
+    <t>Rua São Antônio</t>
+  </si>
+  <si>
+    <t>Santa Cecília</t>
+  </si>
+  <si>
+    <t>IdEndereco</t>
+  </si>
+  <si>
+    <t>HorarioConsulta</t>
+  </si>
+  <si>
+    <t>HorarioAbertura</t>
+  </si>
+  <si>
+    <t>HorarioFechamento</t>
+  </si>
+  <si>
+    <t>Alameda de Barão Limeira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,12 +513,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,31 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -819,14 +738,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="3" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,60 +752,65 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -898,10 +820,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFCC0099"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -1216,33 +1138,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78804989-D715-43AA-A111-C435CB443992}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1256,303 +1179,304 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B6" s="43"/>
+      <c r="D6" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="D6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="10">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10">
         <v>3</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>4</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>5</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>7</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="32"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="42"/>
       <c r="D15" s="10">
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>119</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="D16" s="10">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
-        <v>1</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>110</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>1</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="D17" s="10">
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>2</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>112</v>
+      <c r="B18" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="D18" s="10">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>111</v>
+      <c r="B19" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="D19" s="10">
         <v>12</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="10">
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="10">
         <v>14</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="10">
         <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="10">
         <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="10">
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>1</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>2</v>
       </c>
@@ -1562,17 +1486,14 @@
       <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>3</v>
       </c>
@@ -1582,17 +1503,14 @@
       <c r="C31" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -1602,17 +1520,14 @@
       <c r="C32" s="12">
         <v>1</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>5</v>
       </c>
@@ -1622,17 +1537,14 @@
       <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>6</v>
       </c>
@@ -1642,17 +1554,14 @@
       <c r="C34" s="12">
         <v>1</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>7</v>
       </c>
@@ -1662,17 +1571,14 @@
       <c r="C35" s="12">
         <v>1</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>8</v>
       </c>
@@ -1682,17 +1588,14 @@
       <c r="C36" s="12">
         <v>1</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>9</v>
       </c>
@@ -1702,17 +1605,14 @@
       <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>10</v>
       </c>
@@ -1722,17 +1622,14 @@
       <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>11</v>
       </c>
@@ -1742,43 +1639,40 @@
       <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>1</v>
       </c>
@@ -1789,13 +1683,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -1806,13 +1700,13 @@
         <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>3</v>
       </c>
@@ -1823,51 +1717,51 @@
         <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E46" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="G50" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="H50" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>1</v>
       </c>
@@ -1875,25 +1769,25 @@
         <v>5</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="40">
+        <v>80</v>
+      </c>
+      <c r="E51" s="30">
         <v>94839859000</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="39">
+        <v>87</v>
+      </c>
+      <c r="G51" s="29">
         <v>30602</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -1901,25 +1795,25 @@
         <v>6</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="40">
+        <v>81</v>
+      </c>
+      <c r="E52" s="30">
         <v>73556944057</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="39">
+        <v>88</v>
+      </c>
+      <c r="G52" s="29">
         <v>37095</v>
       </c>
-      <c r="H52" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H52" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>3</v>
       </c>
@@ -1927,25 +1821,25 @@
         <v>7</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="40">
+        <v>82</v>
+      </c>
+      <c r="E53" s="30">
         <v>16839338002</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="39">
+        <v>89</v>
+      </c>
+      <c r="G53" s="29">
         <v>28773</v>
       </c>
-      <c r="H53" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>4</v>
       </c>
@@ -1953,25 +1847,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="40">
+        <v>83</v>
+      </c>
+      <c r="E54" s="30">
         <v>14332654765</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="39">
+        <v>90</v>
+      </c>
+      <c r="G54" s="29">
         <v>31333</v>
       </c>
-      <c r="H54" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H54" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>5</v>
       </c>
@@ -1979,25 +1873,25 @@
         <v>9</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="40">
+        <v>84</v>
+      </c>
+      <c r="E55" s="30">
         <v>91305348010</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" s="39">
+        <v>91</v>
+      </c>
+      <c r="G55" s="29">
         <v>27633</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>6</v>
       </c>
@@ -2005,25 +1899,25 @@
         <v>10</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="40">
+        <v>85</v>
+      </c>
+      <c r="E56" s="30">
         <v>79799299004</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="39">
+        <v>92</v>
+      </c>
+      <c r="G56" s="29">
         <v>26379</v>
       </c>
-      <c r="H56" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>7</v>
       </c>
@@ -2031,500 +1925,545 @@
         <v>11</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="40">
+        <v>86</v>
+      </c>
+      <c r="E57" s="30">
         <v>13771913039</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="39">
+      <c r="F57" s="21"/>
+      <c r="G57" s="29">
         <v>43164</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>1</v>
+      </c>
+      <c r="B62" s="23">
+        <v>3</v>
+      </c>
+      <c r="C62" s="23">
+        <v>7</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="39">
+        <v>43850</v>
+      </c>
+      <c r="F62" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="G62" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>2</v>
+      </c>
+      <c r="B63" s="23">
+        <v>2</v>
+      </c>
+      <c r="C63" s="23">
+        <v>2</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="39">
+        <v>43836</v>
+      </c>
+      <c r="F63" s="40">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G63" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>3</v>
+      </c>
+      <c r="B64" s="23">
+        <v>2</v>
+      </c>
+      <c r="C64" s="23">
+        <v>3</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="39">
+        <v>43868</v>
+      </c>
+      <c r="F64" s="40">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G64" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>4</v>
+      </c>
+      <c r="B65" s="23">
+        <v>2</v>
+      </c>
+      <c r="C65" s="23">
+        <v>2</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="E65" s="39">
+        <v>43137</v>
+      </c>
+      <c r="F65" s="40">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G65" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>5</v>
+      </c>
+      <c r="B66" s="23">
+        <v>1</v>
+      </c>
+      <c r="C66" s="23">
+        <v>4</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="39">
+        <v>43503</v>
+      </c>
+      <c r="F66" s="40">
+        <v>0.45885416666666662</v>
+      </c>
+      <c r="G66" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>6</v>
+      </c>
+      <c r="B67" s="23">
+        <v>3</v>
+      </c>
+      <c r="C67" s="23">
+        <v>7</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="39">
+        <v>43898</v>
+      </c>
+      <c r="F67" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="G67" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>7</v>
+      </c>
+      <c r="B68" s="23">
+        <v>1</v>
+      </c>
+      <c r="C68" s="23">
+        <v>4</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="23" t="s">
+      <c r="E68" s="39">
+        <v>43899</v>
+      </c>
+      <c r="F68" s="40">
+        <v>0.45885416666666662</v>
+      </c>
+      <c r="G68" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="38">
+        <v>532</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="38">
+        <v>240</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="8">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="38">
+        <v>1578</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="8">
+        <v>4</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="38">
+        <v>2927</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8">
+        <v>2</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="38">
+        <v>120</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="8">
+        <v>6</v>
+      </c>
+      <c r="C77" s="8">
+        <v>3</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="38">
+        <v>66</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="8">
+        <v>7</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="38">
+        <v>945</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="8">
+        <v>8</v>
+      </c>
+      <c r="C79" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="38">
+        <v>232</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="50" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="24">
-        <v>1</v>
-      </c>
-      <c r="B62" s="24">
+      <c r="B82" s="50"/>
+      <c r="D82" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="50"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="32">
+        <v>1</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="32">
+        <v>1</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" s="35"/>
+      <c r="H84" s="34"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="32">
+        <v>2</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="32">
         <v>3</v>
       </c>
-      <c r="C62" s="24">
-        <v>7</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="26">
-        <v>43850.625</v>
-      </c>
-      <c r="F62" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>2</v>
-      </c>
-      <c r="B63" s="24">
-        <v>2</v>
-      </c>
-      <c r="C63" s="24">
-        <v>2</v>
-      </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26">
-        <v>43836.416666666664</v>
-      </c>
-      <c r="F63" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
-        <v>3</v>
-      </c>
-      <c r="B64" s="24">
-        <v>2</v>
-      </c>
-      <c r="C64" s="24">
-        <v>3</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="26">
-        <v>43868.458333333336</v>
-      </c>
-      <c r="F64" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="24">
-        <v>4</v>
-      </c>
-      <c r="B65" s="24">
-        <v>2</v>
-      </c>
-      <c r="C65" s="24">
-        <v>2</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="26">
-        <v>43137.416666666664</v>
-      </c>
-      <c r="F65" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="24">
-        <v>5</v>
-      </c>
-      <c r="B66" s="24">
-        <v>1</v>
-      </c>
-      <c r="C66" s="24">
-        <v>4</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26">
-        <v>43503.458854166667</v>
-      </c>
-      <c r="F66" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="24">
-        <v>6</v>
-      </c>
-      <c r="B67" s="24">
-        <v>3</v>
-      </c>
-      <c r="C67" s="24">
-        <v>7</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="26">
-        <v>43898.625</v>
-      </c>
-      <c r="F67" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="24">
-        <v>7</v>
-      </c>
-      <c r="B68" s="24">
-        <v>1</v>
-      </c>
-      <c r="C68" s="24">
-        <v>4</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="26">
-        <v>43899.458854166667</v>
-      </c>
-      <c r="F68" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="47"/>
-      <c r="D70" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="41"/>
-      <c r="G70" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="43"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="G71" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="H71" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
-        <v>1</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="B86" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="8">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="45">
-        <v>1</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>2</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="8">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G73" s="45">
-        <v>2</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
-        <v>3</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="8">
-        <v>3</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G74" s="45">
-        <v>3</v>
-      </c>
-      <c r="H74" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D75" s="8">
-        <v>4</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="45">
-        <v>4</v>
-      </c>
-      <c r="H75" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D76" s="8">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G76" s="45">
-        <v>5</v>
-      </c>
-      <c r="H76" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D77" s="8">
-        <v>6</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G77" s="45">
-        <v>6</v>
-      </c>
-      <c r="H77" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D78" s="8">
-        <v>7</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G78" s="45">
-        <v>7</v>
-      </c>
-      <c r="H78" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D79" s="8">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="D82" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="49"/>
-      <c r="G82" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="H82" s="49"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="50">
-        <v>1</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D84" s="50">
-        <v>1</v>
-      </c>
-      <c r="E84" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="G84" s="51">
-        <v>1</v>
-      </c>
-      <c r="H84" s="50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="50">
-        <v>2</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" s="51">
-        <v>2</v>
-      </c>
-      <c r="H85" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="50">
-        <v>3</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="51">
-        <v>3</v>
-      </c>
-      <c r="H86" s="50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="51">
-        <v>4</v>
-      </c>
-      <c r="H87" s="50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G88" s="51">
-        <v>5</v>
-      </c>
-      <c r="H88" s="50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G89" s="51">
-        <v>6</v>
-      </c>
-      <c r="H89" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G90" s="51">
-        <v>7</v>
-      </c>
-      <c r="H90" s="50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G91" s="51">
-        <v>8</v>
-      </c>
-      <c r="H91" s="50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H93" s="52"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="34"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="35"/>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="35"/>
+      <c r="H88" s="34"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="35"/>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="35"/>
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="35"/>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G82:H82"/>
+  <mergeCells count="11">
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A27:F27"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A42:E42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" xr:uid="{0EE5EF45-C3C1-4473-A511-120717F99651}"/>
-    <hyperlink ref="E30" r:id="rId2" xr:uid="{2E1DFF38-5122-4ED3-A84B-CB2B8DC83438}"/>
-    <hyperlink ref="E31" r:id="rId3" xr:uid="{B1C4A900-6C24-4B52-A9FF-EEA186CAA860}"/>
-    <hyperlink ref="E32" r:id="rId4" xr:uid="{8C82388F-F596-41DA-B5AD-92E34F9A0A06}"/>
-    <hyperlink ref="E33" r:id="rId5" xr:uid="{D95AF836-646F-4093-968E-FFCCD8E2B47D}"/>
-    <hyperlink ref="E34" r:id="rId6" xr:uid="{F6EB7A49-A776-4DFB-8129-5E7748CB997A}"/>
-    <hyperlink ref="E35" r:id="rId7" xr:uid="{9EF7BA9C-5157-4D55-9480-F557B5C11D3F}"/>
-    <hyperlink ref="E36" r:id="rId8" xr:uid="{EAA4666B-3D28-49C3-9337-0E45D09B1E7A}"/>
-    <hyperlink ref="E37" r:id="rId9" xr:uid="{C01E552D-D122-4F5B-B511-38E544B2688F}"/>
-    <hyperlink ref="E38" r:id="rId10" xr:uid="{8D784869-D8D7-4E3F-9D21-F6F1B428D594}"/>
-    <hyperlink ref="E39" r:id="rId11" xr:uid="{342A5F0D-14A3-482F-9A50-185D429EB5C5}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{0EE5EF45-C3C1-4473-A511-120717F99651}"/>
+    <hyperlink ref="D30" r:id="rId2" xr:uid="{2E1DFF38-5122-4ED3-A84B-CB2B8DC83438}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{B1C4A900-6C24-4B52-A9FF-EEA186CAA860}"/>
+    <hyperlink ref="D32" r:id="rId4" xr:uid="{8C82388F-F596-41DA-B5AD-92E34F9A0A06}"/>
+    <hyperlink ref="D33" r:id="rId5" xr:uid="{D95AF836-646F-4093-968E-FFCCD8E2B47D}"/>
+    <hyperlink ref="D34" r:id="rId6" xr:uid="{F6EB7A49-A776-4DFB-8129-5E7748CB997A}"/>
+    <hyperlink ref="D35" r:id="rId7" xr:uid="{9EF7BA9C-5157-4D55-9480-F557B5C11D3F}"/>
+    <hyperlink ref="D36" r:id="rId8" xr:uid="{EAA4666B-3D28-49C3-9337-0E45D09B1E7A}"/>
+    <hyperlink ref="D37" r:id="rId9" xr:uid="{C01E552D-D122-4F5B-B511-38E544B2688F}"/>
+    <hyperlink ref="D38" r:id="rId10" xr:uid="{8D784869-D8D7-4E3F-9D21-F6F1B428D594}"/>
+    <hyperlink ref="D39" r:id="rId11" xr:uid="{342A5F0D-14A3-482F-9A50-185D429EB5C5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
